--- a/export_noa.xlsx
+++ b/export_noa.xlsx
@@ -15,27 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t xml:space="preserve">                                                                                   NOTICE OF AWARD</t>
   </si>
   <si>
-    <t>January 23, 2020</t>
-  </si>
-  <si>
-    <t>Rowena Balahadia</t>
-  </si>
-  <si>
-    <t>Apolega Tire and Service Center</t>
-  </si>
-  <si>
-    <t>Parian, Calamba City</t>
-  </si>
-  <si>
-    <t>Dear Apolega Tire and Service Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We are pleased to inform you that your Quotation for the Procurement of Repair and Maintenance for the For the use Isuzu D"Max CP 2057   with Purchase Order equivalent to Php 32,800.00 is hereby accepted. </t>
+    <t>January 01, 1970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are pleased to inform you that your Quotation for the Procurement of  for the with Purchase Order equivalent to Php 0.00 is hereby accepted. </t>
   </si>
   <si>
     <t xml:space="preserve">Please acknowledge receipt and acceptance of this Notice by signing below. </t>
@@ -56,7 +47,7 @@
     <t>By        :           __________________________</t>
   </si>
   <si>
-    <t xml:space="preserve">                                  Rowena Balahadia</t>
+    <t xml:space="preserve">                                  </t>
   </si>
   <si>
     <t>Date    :           __________________________</t>
@@ -523,28 +514,22 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="A16" s="9"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="A17" s="9"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -560,22 +545,22 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -583,17 +568,17 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -601,7 +586,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
